--- a/biology/Zoologie/Cephalotes_integerrimus/Cephalotes_integerrimus.xlsx
+++ b/biology/Zoologie/Cephalotes_integerrimus/Cephalotes_integerrimus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalotes integerrimus, aussi appelée Zacryptocerus integerrimus par ses découvreurs, est une espèce éteinte de fourmis arboricoles du genre Cephalotes[1][2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cephalotes integerrimus, aussi appelée Zacryptocerus integerrimus par ses découvreurs, est une espèce éteinte de fourmis arboricoles du genre Cephalotes.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Découverte et datation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses fossiles ont été découverts en République dominicaine[3],[4],[5]. Ils proviennent de l'ambre dominicain daté ici du Miocène (Burdigalien à Langhien), soit il y a environ entre 20,44 et 13,82 millions d'années.
-Elle fut décrite et classifiée pour la première fois par les entomologistes allemands Gijsbertus Vierbergen et Joachim Scheven en 1995. Le spécimen (photo) conservé dans de l'ambre dominicain, qui permit l'identification de cette espèce, fut collecté dans un magasin-souvenirs sur l'île d'Hispaniola[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses fossiles ont été découverts en République dominicaine. Ils proviennent de l'ambre dominicain daté ici du Miocène (Burdigalien à Langhien), soit il y a environ entre 20,44 et 13,82 millions d'années.
+Elle fut décrite et classifiée pour la première fois par les entomologistes allemands Gijsbertus Vierbergen et Joachim Scheven en 1995. Le spécimen (photo) conservé dans de l'ambre dominicain, qui permit l'identification de cette espèce, fut collecté dans un magasin-souvenirs sur l'île d'Hispaniola.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le corps de l'animal holotype mesure 3,80 × 1,00 millimètres[3].
-Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres[7]. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le corps de l'animal holotype mesure 3,80 × 1,00 millimètres.
+Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Diversity and Adaptation in the Ant Genus Cephalotes Past and Present (Hymenoptera, Formicidae)
 </t>
